--- a/data/trans_dic/IP41-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,74; 88,19</t>
+          <t>74,86; 88,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,16; 86,76</t>
+          <t>72,93; 87,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,45; 77,32</t>
+          <t>58,55; 76,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,44; 80,93</t>
+          <t>66,15; 81,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,13; 87,34</t>
+          <t>73,9; 87,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,53; 88,29</t>
+          <t>71,61; 88,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,37; 82,61</t>
+          <t>72,88; 83,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,26; 85,25</t>
+          <t>75,91; 85,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,25; 80,08</t>
+          <t>67,44; 80,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,66; 95,22</t>
+          <t>91,63; 95,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,06; 90,85</t>
+          <t>86,09; 90,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,8; 86,3</t>
+          <t>80,51; 86,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,33; 96,02</t>
+          <t>92,25; 96,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,13; 90,97</t>
+          <t>85,92; 90,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,99; 85,29</t>
+          <t>79,86; 85,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,57; 95,09</t>
+          <t>92,59; 95,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,1</t>
+          <t>86,81; 90,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,22; 85,16</t>
+          <t>81,46; 85,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,58; 96,75</t>
+          <t>90,39; 96,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,82; 95,03</t>
+          <t>87,92; 94,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,66; 93,2</t>
+          <t>86,31; 93,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,41; 94,55</t>
+          <t>87,13; 94,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,87; 97,46</t>
+          <t>91,82; 97,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,74; 92,23</t>
+          <t>84,11; 92,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,33; 94,92</t>
+          <t>90,11; 95,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,23; 95,57</t>
+          <t>90,67; 95,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,34; 92,04</t>
+          <t>86,74; 91,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,62; 93,83</t>
+          <t>90,63; 93,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,31; 89,96</t>
+          <t>86,25; 90,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,11; 85,78</t>
+          <t>81,55; 85,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,79</t>
+          <t>89,01; 92,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,29; 91,1</t>
+          <t>87,16; 91,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,96; 86,34</t>
+          <t>81,91; 86,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,51; 92,87</t>
+          <t>90,49; 92,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,07</t>
+          <t>87,36; 89,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>82,37; 85,51</t>
+          <t>82,46; 85,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">

--- a/data/trans_dic/IP41-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP41-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81,49%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,86; 81,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>73,03; 86,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,25; 88,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,83; 88,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,47; 86,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,3; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,13; 82,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>75,56; 85,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,67; 80,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>82,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,86; 88,35</t>
+          <t>92,4; 95,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,93; 87,38</t>
+          <t>85,88; 90,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,55; 76,72</t>
+          <t>79,81; 85,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,15; 81,76</t>
+          <t>91,62; 95,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,9; 87,07</t>
+          <t>85,86; 90,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,61; 88,42</t>
+          <t>80,47; 86,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,88; 83,24</t>
+          <t>92,51; 95,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,91; 85,28</t>
+          <t>86,84; 90,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 80,29</t>
+          <t>81,26; 85,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 95,21</t>
+          <t>87,79; 94,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,7</t>
+          <t>91,95; 97,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,51; 86,07</t>
+          <t>84,44; 92,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,25; 96,02</t>
+          <t>90,91; 96,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,92; 90,88</t>
+          <t>87,69; 94,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,86; 85,55</t>
+          <t>85,51; 93,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,59; 95,09</t>
+          <t>90,4; 95,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,81; 90,15</t>
+          <t>91,02; 95,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,46; 85,14</t>
+          <t>86,16; 91,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,39; 96,76</t>
+          <t>89,21; 92,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,92; 94,95</t>
+          <t>87,23; 91,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,31; 93,49</t>
+          <t>81,72; 86,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,13; 94,46</t>
+          <t>90,57; 93,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,51</t>
+          <t>86,31; 90,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,11; 92,6</t>
+          <t>81,43; 85,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,11; 95,02</t>
+          <t>90,55; 92,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,67; 95,41</t>
+          <t>87,53; 90,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,74; 91,85</t>
+          <t>82,22; 85,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>92,38%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>88,28%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>83,76%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>91,09%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>89,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>84,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>91,76%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>88,72%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>83,97%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>90,63; 93,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>86,25; 90,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 85,94</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>89,01; 92,74</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>87,16; 91,04</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>81,91; 86,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>90,49; 92,83</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>87,36; 89,98</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>82,46; 85,55</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
